--- a/MO銷售原始假資料2407.xlsx
+++ b/MO銷售原始假資料2407.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java\JavaClass\AdvWorkSpace\Java2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18CFAA4-2F9E-4BAB-8B37-3A72971A83EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF3628-5912-4D72-B8BF-0004C809D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F3113935-A8F8-4E6F-B660-A54C839DC809}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>訂單編號(orderNumber)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,7 +141,11 @@
     <t>歐森後背包</t>
   </si>
   <si>
-    <t>MO-20240701-01</t>
+    <t>MO-20240702-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO-20240702-02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -530,12 +534,13 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
     <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,7 +608,7 @@
         <v>1198</v>
       </c>
       <c r="J2" s="3">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -611,7 +616,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -638,7 +643,7 @@
         <v>1797</v>
       </c>
       <c r="J3" s="3">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -673,7 +678,7 @@
         <v>3995</v>
       </c>
       <c r="J4" s="3">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -708,7 +713,7 @@
         <v>2093</v>
       </c>
       <c r="J5" s="3">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
@@ -743,7 +748,7 @@
         <v>3996</v>
       </c>
       <c r="J6" s="3">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
